--- a/po-fa.xlsx
+++ b/po-fa.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mr.CK\In Birming\PhD\Chapter 1\Python Repository\Data imput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C0F9BB-C49B-43D9-8307-6AB5E2E6AA92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B532A2D-3E59-458C-B9A4-DF504D2C97F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="1" xr2:uid="{498E602A-87BC-4390-B3B5-55D6A1F4EDA7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="3" xr2:uid="{498E602A-87BC-4390-B3B5-55D6A1F4EDA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="1" r:id="rId1"/>
     <sheet name="Farmland" sheetId="2" r:id="rId2"/>
+    <sheet name="AgricultureTax_food" sheetId="3" r:id="rId3"/>
+    <sheet name="AgricultureTax" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>JX</t>
   </si>
@@ -401,7 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4595875-ED54-4CC6-8703-D5F94A6C12C8}">
   <dimension ref="A1:E548"/>
   <sheetViews>
-    <sheetView topLeftCell="A520" workbookViewId="0">
+    <sheetView topLeftCell="A256" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -6367,7 +6369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30F6E3A-EFAF-44AC-83D5-41906758D2A6}">
   <dimension ref="A1:E567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+    <sheetView topLeftCell="A262" workbookViewId="0">
       <selection activeCell="C558" sqref="C558"/>
     </sheetView>
   </sheetViews>
@@ -9379,4 +9381,5713 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825BF7CE-BC93-40CF-BF71-7F0ED017542D}">
+  <dimension ref="A1:E546"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1461</v>
+      </c>
+      <c r="B95">
+        <v>5396009</v>
+      </c>
+      <c r="C95">
+        <v>2340500</v>
+      </c>
+      <c r="D95">
+        <v>2397000</v>
+      </c>
+      <c r="E95">
+        <v>2581000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>1633</v>
+      </c>
+      <c r="B267">
+        <v>6354200</v>
+      </c>
+      <c r="C267">
+        <v>1058964</v>
+      </c>
+      <c r="D267">
+        <v>2366400</v>
+      </c>
+      <c r="E267">
+        <v>2771593</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>1661</v>
+      </c>
+      <c r="B295">
+        <v>2002924.635709998</v>
+      </c>
+      <c r="C295">
+        <v>785592.36429000192</v>
+      </c>
+      <c r="D295">
+        <v>1361367</v>
+      </c>
+      <c r="E295">
+        <v>938753</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>1686</v>
+      </c>
+      <c r="D320">
+        <v>1345772</v>
+      </c>
+      <c r="E320">
+        <v>925423</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>1724</v>
+      </c>
+      <c r="D358">
+        <v>1369258</v>
+      </c>
+      <c r="E358">
+        <v>127452</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>1753</v>
+      </c>
+      <c r="B387">
+        <v>2155021</v>
+      </c>
+      <c r="C387">
+        <v>845248</v>
+      </c>
+      <c r="D387">
+        <v>1130481</v>
+      </c>
+      <c r="E387">
+        <v>899632</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>1766</v>
+      </c>
+      <c r="B400">
+        <v>2036461</v>
+      </c>
+      <c r="C400">
+        <v>694316</v>
+      </c>
+      <c r="D400">
+        <v>1386700</v>
+      </c>
+      <c r="E400">
+        <v>899836</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>1784</v>
+      </c>
+      <c r="B418">
+        <v>2381599.9459359217</v>
+      </c>
+      <c r="C418">
+        <v>413648</v>
+      </c>
+      <c r="D418">
+        <v>1372819</v>
+      </c>
+      <c r="E418">
+        <v>770266</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>1820</v>
+      </c>
+      <c r="B454">
+        <v>2390599</v>
+      </c>
+      <c r="C454">
+        <v>415211</v>
+      </c>
+      <c r="D454">
+        <v>1352459</v>
+      </c>
+      <c r="E454">
+        <v>962886</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>1912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0433AC-4C36-4261-92F1-8C8FF87BEF52}">
+  <dimension ref="A1:E546"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
+      <selection activeCell="H546" sqref="H546"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>1661</v>
+      </c>
+      <c r="B295">
+        <v>3307450.1121944925</v>
+      </c>
+      <c r="C295">
+        <v>1295342.8878055078</v>
+      </c>
+      <c r="D295">
+        <v>2572592</v>
+      </c>
+      <c r="E295">
+        <v>1726970</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>1685</v>
+      </c>
+      <c r="B319">
+        <v>3680192</v>
+      </c>
+      <c r="C319">
+        <v>1441325</v>
+      </c>
+      <c r="D319">
+        <v>2618416</v>
+      </c>
+      <c r="E319">
+        <v>1743245</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>1724</v>
+      </c>
+      <c r="B358">
+        <v>3719942</v>
+      </c>
+      <c r="C358">
+        <v>1387596</v>
+      </c>
+      <c r="D358">
+        <v>2695432</v>
+      </c>
+      <c r="E358">
+        <v>1179476</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>1753</v>
+      </c>
+      <c r="B387">
+        <v>3371334</v>
+      </c>
+      <c r="C387">
+        <v>1688000</v>
+      </c>
+      <c r="D387">
+        <v>2812049</v>
+      </c>
+      <c r="E387">
+        <v>1879810</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>1766</v>
+      </c>
+      <c r="B400">
+        <v>3255236</v>
+      </c>
+      <c r="C400">
+        <v>1707123</v>
+      </c>
+      <c r="D400">
+        <v>2821483</v>
+      </c>
+      <c r="E400">
+        <v>1939126</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>1784</v>
+      </c>
+      <c r="B418">
+        <v>3294666</v>
+      </c>
+      <c r="C418">
+        <v>1592214</v>
+      </c>
+      <c r="D418">
+        <v>2841462</v>
+      </c>
+      <c r="E418">
+        <v>1901917</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>1820</v>
+      </c>
+      <c r="B454">
+        <v>3083413</v>
+      </c>
+      <c r="C454">
+        <v>1628676</v>
+      </c>
+      <c r="D454">
+        <v>2952410</v>
+      </c>
+      <c r="E454">
+        <v>1920182</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>1893</v>
+      </c>
+      <c r="B527">
+        <v>2890860</v>
+      </c>
+      <c r="C527">
+        <v>1662816</v>
+      </c>
+      <c r="D527">
+        <v>2911018</v>
+      </c>
+      <c r="E527">
+        <v>2388130</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>1903</v>
+      </c>
+      <c r="B537">
+        <v>20019988</v>
+      </c>
+      <c r="C537">
+        <v>1271973</v>
+      </c>
+      <c r="E537">
+        <v>1949478</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>1912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/po-fa.xlsx
+++ b/po-fa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mr.CK\In Birming\PhD\Chapter 1\Python Repository\Data imput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B532A2D-3E59-458C-B9A4-DF504D2C97F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE5B580-D5F2-4663-A342-318AA770B7D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" activeTab="3" xr2:uid="{498E602A-87BC-4390-B3B5-55D6A1F4EDA7}"/>
   </bookViews>
@@ -12238,7 +12238,7 @@
   <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="H546" sqref="H546"/>
+      <selection activeCell="G537" sqref="G537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15033,7 +15033,7 @@
         <v>1903</v>
       </c>
       <c r="B537">
-        <v>20019988</v>
+        <v>2019988</v>
       </c>
       <c r="C537">
         <v>1271973</v>
